--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-09_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-09_beg.xlsx
@@ -648,7 +648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="첸"]  아직 몇 시간 남았다. 제대로 준비해. 정찰팀과 엔지니어팀이 먼저 움직여. 총공격을 개시하기 전까지 우리 작전팀은 아직 힘을 비축할 시간이 조금 남아 있다.
+    <t xml:space="preserve">[name="첸"]  아직 몇 시간 남았다. 제대로 준비해. 정찰팀과 엔지니어링부가 먼저 움직여. 총공격을 개시하기 전까지 우리 작전팀은 아직 힘을 비축할 시간이 조금 남아 있다.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-09_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-09_beg.xlsx
@@ -396,7 +396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   11:20 PM \ Overcast
+    <t xml:space="preserve">[name=""]   11:20 P.M. \ Overcast
 </t>
   </si>
   <si>
